--- a/SWE/Semester2/Deliverable#1/Gantt chart.xlsx
+++ b/SWE/Semester2/Deliverable#1/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Karim\Desktop\Health-Information-Network\SWE\Semester2\Deliverable#1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC2158-49A1-45A9-8A16-1B91810AD2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA349E8-C783-4E52-9E28-3888C07A178A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80050759-7A8A-4A84-83C5-C988EA829B54}"/>
   </bookViews>
@@ -149,13 +149,13 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,6 +449,502 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E9BC-4E3E-B75B-BD28D9137332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1096367359"/>
+        <c:axId val="1096363999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1096367359"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096363999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1096363999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45661"/>
+          <c:min val="45587"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096367359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Critical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Path</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3799646206504888"/>
+          <c:y val="3.4582132564841501E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$6:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Deliverable #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Deliverable #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deliverable#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deliverable#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Deliverable#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99DA-4863-B399-8009803127D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-99DA-4863-B399-8009803127D5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-99DA-4863-B399-8009803127D5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>d</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99DA-4863-B399-8009803127D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -680,7 +1176,547 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1213,6 +2249,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6A7C7C-D53E-482D-A885-E5450C6BC0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1555,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD928B50-B0D3-4DBF-87A0-D0EA28E8ECB3}">
   <dimension ref="C3:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,25 +2645,25 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="P5" t="s">
@@ -1681,11 +2755,11 @@
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="R13" s="6"/>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
